--- a/TP2-Sim-TomaDeDatos.xlsx
+++ b/TP2-Sim-TomaDeDatos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alvaro\UTN\4to Año Sistemas\SIM\Trabajos practicos\TP2\TP2-Simulacion-TomaDeDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alvaro\UTN\4to Año Sistemas\SIM\Trabajos practicos\TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A5208B-641E-4503-AEDC-7969800D59EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E4B105-3BA2-4F46-94CA-78D70A289A8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="4110" windowWidth="21600" windowHeight="11385" xr2:uid="{34C60A23-B3C1-494C-98A5-DE816583DA26}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="125">
   <si>
     <t>Partido</t>
   </si>
@@ -187,13 +187,232 @@
   </si>
   <si>
     <t>ATL-SAC</t>
+  </si>
+  <si>
+    <t>DEN-ORL</t>
+  </si>
+  <si>
+    <t>LAL-NOP</t>
+  </si>
+  <si>
+    <t>PHX-MIA</t>
+  </si>
+  <si>
+    <t>PHI-GSW</t>
+  </si>
+  <si>
+    <t>BKN-POR</t>
+  </si>
+  <si>
+    <t>SAC-CLE</t>
+  </si>
+  <si>
+    <t>OKC-MIN</t>
+  </si>
+  <si>
+    <t>CHA-SAS</t>
+  </si>
+  <si>
+    <t>UTA-CHI</t>
+  </si>
+  <si>
+    <t>BOS-MEM</t>
+  </si>
+  <si>
+    <t>IND-MIL</t>
+  </si>
+  <si>
+    <t>ATL-LAC</t>
+  </si>
+  <si>
+    <t>TOR-HOU</t>
+  </si>
+  <si>
+    <t>IND-MIA</t>
+  </si>
+  <si>
+    <t>OKC-HOU</t>
+  </si>
+  <si>
+    <t>NOP-DEN</t>
+  </si>
+  <si>
+    <t>ORL-BOS</t>
+  </si>
+  <si>
+    <t>WAS-BKN</t>
+  </si>
+  <si>
+    <t>TOR-CLE</t>
+  </si>
+  <si>
+    <t>CHI-DET</t>
+  </si>
+  <si>
+    <t>PHI-NYK</t>
+  </si>
+  <si>
+    <t>LAL-PHX</t>
+  </si>
+  <si>
+    <t>DAL-POR</t>
+  </si>
+  <si>
+    <t>ATL-LAL</t>
+  </si>
+  <si>
+    <t>SAC-PHI</t>
+  </si>
+  <si>
+    <t>GSW-MEM</t>
+  </si>
+  <si>
+    <t>SAS-MIL</t>
+  </si>
+  <si>
+    <t>CHA-LAC</t>
+  </si>
+  <si>
+    <t>SAS-CLE</t>
+  </si>
+  <si>
+    <t>SAC-BOS</t>
+  </si>
+  <si>
+    <t>UTA-TOR</t>
+  </si>
+  <si>
+    <t>DET-HOU</t>
+  </si>
+  <si>
+    <t>CHI-DEN</t>
+  </si>
+  <si>
+    <t>MIN-PHX</t>
+  </si>
+  <si>
+    <t>BKN-ORL</t>
+  </si>
+  <si>
+    <t>UTA-WAS</t>
+  </si>
+  <si>
+    <t>OKC-ATL</t>
+  </si>
+  <si>
+    <t>ORL-NYK</t>
+  </si>
+  <si>
+    <t>NOP-POR</t>
+  </si>
+  <si>
+    <t>CHA-LAL</t>
+  </si>
+  <si>
+    <t>BKN-IND</t>
+  </si>
+  <si>
+    <t>MIL-PHI</t>
+  </si>
+  <si>
+    <t>SAC-WAS</t>
+  </si>
+  <si>
+    <t>BOS-CLE</t>
+  </si>
+  <si>
+    <t>SAS-CHI</t>
+  </si>
+  <si>
+    <t>GSW-HOU</t>
+  </si>
+  <si>
+    <t>MIA-MEM</t>
+  </si>
+  <si>
+    <t>CHA-DEN</t>
+  </si>
+  <si>
+    <t>LAC-DAL</t>
+  </si>
+  <si>
+    <t>UTA-BOS</t>
+  </si>
+  <si>
+    <t>CLE-MIA</t>
+  </si>
+  <si>
+    <t>NYK-PHI</t>
+  </si>
+  <si>
+    <t>OKC-CHI</t>
+  </si>
+  <si>
+    <t>ATL-HOU</t>
+  </si>
+  <si>
+    <t>MIN-LAL</t>
+  </si>
+  <si>
+    <t>SAC-CHA</t>
+  </si>
+  <si>
+    <t>MIL-WAS</t>
+  </si>
+  <si>
+    <t>SAS-DET</t>
+  </si>
+  <si>
+    <t>NYK-BKN</t>
+  </si>
+  <si>
+    <t>IND-DEN</t>
+  </si>
+  <si>
+    <t>MEM-PHX</t>
+  </si>
+  <si>
+    <t>LAL-GSW</t>
+  </si>
+  <si>
+    <t>Nro de Veces</t>
+  </si>
+  <si>
+    <t>SUMA</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>H0= los datos tienen una distribucion de Poisson</t>
+  </si>
+  <si>
+    <t>H1= los datos no tienen una distribucion de Poisson</t>
+  </si>
+  <si>
+    <t>MEDIA = LAMBDA</t>
+  </si>
+  <si>
+    <t>Frecuencia Observada</t>
+  </si>
+  <si>
+    <t>Frecuencia Esperada</t>
+  </si>
+  <si>
+    <t>Cantidad de Triples Convertidos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,16 +420,75 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -218,14 +496,159 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Énfasis2" xfId="1" builtinId="33"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -239,6 +662,1054 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$6:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ED3D-7C41-90DE-BF2EE2CBA75A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="80"/>
+        <c:overlap val="25"/>
+        <c:axId val="1061912319"/>
+        <c:axId val="1061783503"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1061912319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1061783503"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1061783503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1061912319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="215">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>297629</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>124437</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B63E7406-60B4-BC49-A7A9-D874588912F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13477875" y="1924050"/>
+          <a:ext cx="3326579" cy="915012"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:schemeClr val="bg2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1747</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>278579</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>75417</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC51BD5-536A-B146-B7D1-CD9D9E466617}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -537,748 +2008,2431 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE7C1EB-6A82-4E94-B214-DAE87CE3C3E2}">
-  <dimension ref="A2:D112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:K252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="D5" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="array" ref="E6:E32">FREQUENCY(B3:B252,D6:D31)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <f>D6*E6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="array" ref="I6:I32">FREQUENCY(B3:B252,D6:D32)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <f>((EXP(-$E$39)*POWER($E$39,I6))/FACT(I6))*$E$39</f>
+        <v>5.1070499973442785E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8">
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" ref="F7:F32" si="0">D7*E7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
+        <f>((EXP(-$E$39)*POWER($E$39,I7))/FACT(I7))*$E$39</f>
+        <v>5.1070499973442785E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
+        <f>((EXP(-$E$39)*POWER($E$39,I8))/FACT(I8))*$E$39</f>
+        <v>5.1070499973442785E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10">
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14">
+        <f>((EXP(-$E$39)*POWER($E$39,I9))/FACT(I9))*$E$39</f>
+        <v>5.1070499973442785E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3</v>
+      </c>
+      <c r="J10" s="14">
+        <f>((EXP(-$E$39)*POWER($E$39,I10))/FACT(I10))*$E$39</f>
+        <v>1.6228706823560896E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4</v>
+      </c>
+      <c r="J11" s="14">
+        <f>((EXP(-$E$39)*POWER($E$39,I11))/FACT(I11))*$E$39</f>
+        <v>5.0308991153038787E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D12" s="1">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3</v>
+      </c>
+      <c r="J12" s="14">
+        <f>((EXP(-$E$39)*POWER($E$39,I12))/FACT(I12))*$E$39</f>
+        <v>1.6228706823560896E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14">
+      <c r="D13" s="1">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="I13" s="1">
+        <v>14</v>
+      </c>
+      <c r="J13" s="14">
+        <f>((EXP(-$E$39)*POWER($E$39,I13))/FACT(I13))*$E$39</f>
+        <v>1.1903244373889652</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="3">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1">
         <v>8</v>
       </c>
-      <c r="B15">
+      <c r="E14" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16">
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="I14" s="1">
+        <v>14</v>
+      </c>
+      <c r="J14" s="14">
+        <f>((EXP(-$E$39)*POWER($E$39,I14))/FACT(I14))*$E$39</f>
+        <v>1.1903244373889652</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="I15" s="1">
+        <v>20</v>
+      </c>
+      <c r="J15" s="14">
+        <f>((EXP(-$E$39)*POWER($E$39,I15))/FACT(I15))*$E$39</f>
+        <v>0.15505265099205479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D16" s="1">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1">
+        <v>28</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="I16" s="1">
+        <v>28</v>
+      </c>
+      <c r="J16" s="14">
+        <f>((EXP(-$E$39)*POWER($E$39,I16))/FACT(I16))*$E$39</f>
+        <v>6.9157051958236896E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18">
+      <c r="D17" s="1">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1">
+        <v>28</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>308</v>
+      </c>
+      <c r="I17" s="1">
+        <v>28</v>
+      </c>
+      <c r="J17" s="14">
+        <f>((EXP(-$E$39)*POWER($E$39,I17))/FACT(I17))*$E$39</f>
+        <v>6.9157051958236896E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D18" s="1">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1">
+        <v>32</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>384</v>
+      </c>
+      <c r="I18" s="1">
+        <v>32</v>
+      </c>
+      <c r="J18" s="14">
+        <f>((EXP(-$E$39)*POWER($E$39,I18))/FACT(I18))*$E$39</f>
+        <v>1.8944898711612278E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20">
+      <c r="D19" s="1">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1">
+        <v>18</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>234</v>
+      </c>
+      <c r="I19" s="1">
+        <v>18</v>
+      </c>
+      <c r="J19" s="14">
+        <f>((EXP(-$E$39)*POWER($E$39,I19))/FACT(I19))*$E$39</f>
+        <v>0.38319463694706568</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D20" s="1">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1">
+        <v>19</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="0"/>
+        <v>266</v>
+      </c>
+      <c r="I20" s="1">
+        <v>19</v>
+      </c>
+      <c r="J20" s="14">
+        <f>((EXP(-$E$39)*POWER($E$39,I20))/FACT(I20))*$E$39</f>
+        <v>0.25008492095492707</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22">
+      <c r="D21" s="1">
+        <v>15</v>
+      </c>
+      <c r="E21" s="1">
+        <v>12</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="I21" s="1">
+        <v>12</v>
+      </c>
+      <c r="J21" s="14">
+        <f>((EXP(-$E$39)*POWER($E$39,I21))/FACT(I21))*$E$39</f>
+        <v>1.4089428174088945</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="D22" s="1">
+        <v>16</v>
+      </c>
+      <c r="E22" s="1">
         <v>12</v>
       </c>
-      <c r="B23">
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="I22" s="1">
+        <v>12</v>
+      </c>
+      <c r="J22" s="14">
+        <f>((EXP(-$E$39)*POWER($E$39,I22))/FACT(I22))*$E$39</f>
+        <v>1.4089428174088945</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24">
+      <c r="D23" s="1">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1">
+        <v>13</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
+        <v>221</v>
+      </c>
+      <c r="I23" s="1">
+        <v>13</v>
+      </c>
+      <c r="J23" s="14">
+        <f>((EXP(-$E$39)*POWER($E$39,I23))/FACT(I23))*$E$39</f>
+        <v>1.3439146873746379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="D24" s="1">
+        <v>18</v>
+      </c>
+      <c r="E24" s="1">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="I24" s="1">
+        <v>8</v>
+      </c>
+      <c r="J24" s="14">
+        <f>((EXP(-$E$39)*POWER($E$39,I24))/FACT(I24))*$E$39</f>
+        <v>0.70798338771269409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26">
+      <c r="D25" s="1">
+        <v>19</v>
+      </c>
+      <c r="E25" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="F25" s="3">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="I25" s="1">
+        <v>10</v>
+      </c>
+      <c r="J25" s="14">
+        <f>((EXP(-$E$39)*POWER($E$39,I25))/FACT(I25))*$E$39</f>
+        <v>1.2095502854967095</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="3">
+        <v>10</v>
+      </c>
+      <c r="D26" s="1">
+        <v>20</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3">
+        <f>D26*E26</f>
+        <v>60</v>
+      </c>
+      <c r="I26" s="1">
+        <v>3</v>
+      </c>
+      <c r="J26" s="14">
+        <f>((EXP(-$E$39)*POWER($E$39,I26))/FACT(I26))*$E$39</f>
+        <v>1.6228706823560896E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28">
+      <c r="D27" s="1">
+        <v>21</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="I27" s="1">
+        <v>3</v>
+      </c>
+      <c r="J27" s="14">
+        <f>((EXP(-$E$39)*POWER($E$39,I27))/FACT(I27))*$E$39</f>
+        <v>1.6228706823560896E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="D28" s="1">
+        <v>22</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2</v>
+      </c>
+      <c r="J28" s="14">
+        <f>((EXP(-$E$39)*POWER($E$39,I28))/FACT(I28))*$E$39</f>
+        <v>3.9263000379582812E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30">
+      <c r="D29" s="1">
+        <v>23</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2</v>
+      </c>
+      <c r="J29" s="14">
+        <f>((EXP(-$E$39)*POWER($E$39,I29))/FACT(I29))*$E$39</f>
+        <v>3.9263000379582812E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="D30" s="1">
+        <v>24</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="I30" s="1">
+        <v>2</v>
+      </c>
+      <c r="J30" s="14">
+        <f>((EXP(-$E$39)*POWER($E$39,I30))/FACT(I30))*$E$39</f>
+        <v>3.9263000379582812E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B32">
+      <c r="D31" s="1">
+        <v>25</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="14">
+        <f>((EXP(-$E$39)*POWER($E$39,I31))/FACT(I31))*$E$39</f>
+        <v>5.1070499973442785E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="D32" s="1">
+        <v>26</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="14">
+        <f>((EXP(-$E$39)*POWER($E$39,I32))/FACT(I32))*$E$39</f>
+        <v>5.1070499973442785E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34">
+      <c r="E33" s="4">
+        <f>SUM(E6:E32)</f>
+        <v>250</v>
+      </c>
+      <c r="F33" s="4">
+        <f>(SUM(F6:F32))</f>
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36">
+    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="D36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="3">
+        <f>COUNT(B3:B252)</f>
+        <v>250</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B38">
+      <c r="D37" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="3">
+        <f>MAX(B3:B252)</f>
+        <v>24</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="D38" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" s="3">
+        <f>MIN(B3:B252)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B40">
+      <c r="D39" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="3">
+        <f>F33/E33</f>
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B42">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B44">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B46">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+      <c r="B46" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B48">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B50">
+      <c r="A50" s="16"/>
+      <c r="B50" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="4">
         <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B52">
+      <c r="A52" s="18"/>
+      <c r="B52" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B54">
+      <c r="A54" s="16"/>
+      <c r="B54" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B56">
+      <c r="A56" s="18"/>
+      <c r="B56" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B58">
+      <c r="A58" s="16"/>
+      <c r="B58" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="4">
         <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B60">
+      <c r="A60" s="18"/>
+      <c r="B60" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B62">
+      <c r="A62" s="16"/>
+      <c r="B62" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="4">
         <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B64">
+      <c r="A64" s="18"/>
+      <c r="B64" s="4">
         <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B66">
+      <c r="A66" s="16"/>
+      <c r="B66" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="4">
         <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B68">
+      <c r="A68" s="18"/>
+      <c r="B68" s="4">
         <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B70">
+      <c r="A70" s="16"/>
+      <c r="B70" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B72">
+      <c r="A72" s="18"/>
+      <c r="B72" s="4">
         <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B74">
+      <c r="A74" s="16"/>
+      <c r="B74" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="4">
         <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B76">
+      <c r="A76" s="18"/>
+      <c r="B76" s="4">
         <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B78">
+      <c r="A78" s="16"/>
+      <c r="B78" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B80">
+      <c r="A80" s="18"/>
+      <c r="B80" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B82">
+      <c r="A82" s="16"/>
+      <c r="B82" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B84">
+      <c r="A84" s="18"/>
+      <c r="B84" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B86">
+      <c r="A86" s="16"/>
+      <c r="B86" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="4">
         <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B88">
+      <c r="A88" s="18"/>
+      <c r="B88" s="4">
         <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B90">
+      <c r="A90" s="16"/>
+      <c r="B90" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B92">
+      <c r="A92" s="18"/>
+      <c r="B92" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B94">
+      <c r="A94" s="16"/>
+      <c r="B94" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="4">
         <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B96">
+      <c r="A96" s="18"/>
+      <c r="B96" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B98">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="16"/>
+      <c r="B98" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B100">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="18"/>
+      <c r="B100" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B102">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="16"/>
+      <c r="B102" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B104">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="18"/>
+      <c r="B104" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B106">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="16"/>
+      <c r="B106" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B108">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="18"/>
+      <c r="B108" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B110">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="16"/>
+      <c r="B110" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B112">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="18"/>
+      <c r="B112" s="4">
         <v>10</v>
       </c>
-      <c r="D112">
-        <f>COUNT(B3:B112)</f>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B113" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="16"/>
+      <c r="B114" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B115" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="18"/>
+      <c r="B116" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B117" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="16"/>
+      <c r="B118" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B119" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="18"/>
+      <c r="B120" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B121" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="16"/>
+      <c r="B122" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B123" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="18"/>
+      <c r="B124" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B125" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="16"/>
+      <c r="B126" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B127" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="18"/>
+      <c r="B128" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B129" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="16"/>
+      <c r="B130" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B131" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="18"/>
+      <c r="B132" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B133" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="16"/>
+      <c r="B134" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B135" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="18"/>
+      <c r="B136" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B137" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="16"/>
+      <c r="B138" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B139" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="18"/>
+      <c r="B140" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B141" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="16"/>
+      <c r="B142" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B143" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="18"/>
+      <c r="B144" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B145" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="16"/>
+      <c r="B146" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B147" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="18"/>
+      <c r="B148" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B149" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="16"/>
+      <c r="B150" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B151" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="18"/>
+      <c r="B152" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B153" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="16"/>
+      <c r="B154" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B155" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="18"/>
+      <c r="B156" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B157" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="16"/>
+      <c r="B158" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B159" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="18"/>
+      <c r="B160" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B161" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="16"/>
+      <c r="B162" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B163" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="18"/>
+      <c r="B164" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B165" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="16"/>
+      <c r="B166" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B167" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="18"/>
+      <c r="B168" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B169" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="16"/>
+      <c r="B170" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B171" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="18"/>
+      <c r="B172" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B173" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="16"/>
+      <c r="B174" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B175" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="18"/>
+      <c r="B176" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B177" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="16"/>
+      <c r="B178" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B179" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="18"/>
+      <c r="B180" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B181" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="16"/>
+      <c r="B182" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B183" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="18"/>
+      <c r="B184" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B185" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="16"/>
+      <c r="B186" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B187" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="18"/>
+      <c r="B188" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B189" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="16"/>
+      <c r="B190" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B191" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="18"/>
+      <c r="B192" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B193" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="16"/>
+      <c r="B194" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B195" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="18"/>
+      <c r="B196" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B197" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="16"/>
+      <c r="B198" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B199" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="18"/>
+      <c r="B200" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B201" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="16"/>
+      <c r="B202" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B203" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="18"/>
+      <c r="B204" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B205" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="16"/>
+      <c r="B206" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B207" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="18"/>
+      <c r="B208" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B209" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="16"/>
+      <c r="B210" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B211" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="18"/>
+      <c r="B212" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B213" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="16"/>
+      <c r="B214" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B215" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="18"/>
+      <c r="B216" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B217" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="16"/>
+      <c r="B218" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B219" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="18"/>
+      <c r="B220" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B221" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="16"/>
+      <c r="B222" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B223" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="18"/>
+      <c r="B224" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B225" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="16"/>
+      <c r="B226" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B227" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="18"/>
+      <c r="B228" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B229" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="16"/>
+      <c r="B230" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B231" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="18"/>
+      <c r="B232" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B233" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="16"/>
+      <c r="B234" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B235" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="18"/>
+      <c r="B236" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B237" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="16"/>
+      <c r="B238" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B239" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="18"/>
+      <c r="B240" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="15" t="s">
         <v>110</v>
       </c>
+      <c r="B241" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="16"/>
+      <c r="B242" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B243" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="18"/>
+      <c r="B244" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B245" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="16"/>
+      <c r="B246" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B247" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="18"/>
+      <c r="B248" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B249" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="16"/>
+      <c r="B250" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B251" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="18"/>
+      <c r="B252" s="4">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="125">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A251:A252"/>
+    <mergeCell ref="A249:A250"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="A245:A246"/>
+    <mergeCell ref="A243:A244"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="A241:A242"/>
+    <mergeCell ref="A239:A240"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="A233:A234"/>
+    <mergeCell ref="A231:A232"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="A227:A228"/>
+    <mergeCell ref="A225:A226"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="A221:A222"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="A199:A200"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TP2-Sim-TomaDeDatos.xlsx
+++ b/TP2-Sim-TomaDeDatos.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alvaro\UTN\4to Año Sistemas\SIM\Trabajos practicos\TP2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alvaro\UTN\4to Año Sistemas\SIM\Trabajos practicos\TP2\TP2-Simulacion-TomaDeDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E4B105-3BA2-4F46-94CA-78D70A289A8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B44BB8-CB6F-41FC-BC69-283F2AAF3A27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="lambda">Hoja1!$E$39</definedName>
+    <definedName name="suma_veces">Hoja1!$E$33</definedName>
     <definedName name="var_1">Hoja1!$H$11</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="140">
   <si>
     <t>Partido</t>
   </si>
@@ -403,6 +405,51 @@
   </si>
   <si>
     <t>Cantidad de Triples Convertidos</t>
+  </si>
+  <si>
+    <t>La siguiente tabla de números, indica la cantidad de triples convertidos por equipo, en un Partido de la NBA.-</t>
+  </si>
+  <si>
+    <t>calculo la frecuencia esperada</t>
+  </si>
+  <si>
+    <t>histograma</t>
+  </si>
+  <si>
+    <t>ho: esos datos son de Poisson</t>
+  </si>
+  <si>
+    <t>junto donde la frecuencia es menor a 5</t>
+  </si>
+  <si>
+    <t>(fo - fe)^2</t>
+  </si>
+  <si>
+    <t>[(fo - fe)^2]/fe</t>
+  </si>
+  <si>
+    <t>ji cuadrado</t>
+  </si>
+  <si>
+    <t>v =  16 - 1 - 1 = 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; </t>
+  </si>
+  <si>
+    <t>signficiacia 0,01</t>
+  </si>
+  <si>
+    <t>PRUEBA.CHI.INV(0,01;14)</t>
+  </si>
+  <si>
+    <t>con significacia de 0,01</t>
+  </si>
+  <si>
+    <t>de concluir que la muestra no se ajusta a la distribución propuesta, cuando en realidad si lo hace.</t>
+  </si>
+  <si>
+    <t>indica que existe un riesgo de 1%</t>
   </si>
 </sst>
 </file>
@@ -412,7 +459,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,6 +493,37 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -604,7 +682,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -634,18 +712,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Énfasis2" xfId="1" builtinId="33"/>
@@ -679,6 +767,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Histograma</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -730,63 +843,96 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$D$6:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Hoja1!$E$6:$E$32</c:f>
@@ -879,14 +1025,13 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ED3D-7C41-90DE-BF2EE2CBA75A}"/>
+              <c16:uniqueId val="{00000000-0BA6-4258-AFAB-0555678D2433}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -894,16 +1039,17 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="1061912319"/>
-        <c:axId val="1061783503"/>
+        <c:axId val="1644351471"/>
+        <c:axId val="1644364367"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1061912319"/>
+        <c:axId val="1644351471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -940,7 +1086,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1061783503"/>
+        <c:crossAx val="1644364367"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -948,7 +1094,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1061783503"/>
+        <c:axId val="1644364367"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -999,7 +1145,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1061912319"/>
+        <c:crossAx val="1644351471"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1013,13 +1159,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1591,16 +1730,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>748310</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>13097</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>297629</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>124437</xdr:rowOff>
+      <xdr:colOff>267865</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>169086</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1630,8 +1769,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13477875" y="1924050"/>
-          <a:ext cx="3326579" cy="915012"/>
+          <a:off x="15095341" y="2945011"/>
+          <a:ext cx="3314672" cy="929895"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1675,23 +1814,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1747</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>114801</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>110134</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>34826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>278579</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>75417</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1607344</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>74415</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
+        <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC51BD5-536A-B146-B7D1-CD9D9E466617}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D36EAE3-46D1-4D8D-B9E1-6DC912A2A033}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1707,6 +1846,50 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>29765</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>14882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>100696</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>16155</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="5 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD1AA5EA-DE81-4D9C-AECF-D636093BF9C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16891992" y="14957226"/>
+          <a:ext cx="2065228" cy="1549085"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2009,46 +2192,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K252"/>
+  <dimension ref="A2:M252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="F49" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.7109375" customWidth="1"/>
-    <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="42" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" customWidth="1"/>
+    <col min="10" max="10" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="D2" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
       <c r="B4" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3">
@@ -2060,6 +2257,9 @@
       <c r="E5" s="8" t="s">
         <v>115</v>
       </c>
+      <c r="H5" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="I5" s="8" t="s">
         <v>122</v>
       </c>
@@ -2067,8 +2267,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
       <c r="B6" s="3">
         <v>12</v>
       </c>
@@ -2083,17 +2283,19 @@
         <f>D6*E6</f>
         <v>0</v>
       </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
       <c r="I6" s="1">
-        <f t="array" ref="I6:I32">FREQUENCY(B3:B252,D6:D32)</f>
         <v>0</v>
       </c>
       <c r="J6" s="14">
-        <f>((EXP(-$E$39)*POWER($E$39,I6))/FACT(I6))*$E$39</f>
-        <v>5.1070499973442785E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+        <f>((EXP(-lambda)*POWER(lambda,H6))/FACT(H6))*suma_veces</f>
+        <v>1.0296471768839271E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="4">
@@ -2109,16 +2311,19 @@
         <f t="shared" ref="F7:F32" si="0">D7*E7</f>
         <v>0</v>
       </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="14">
-        <f>((EXP(-$E$39)*POWER($E$39,I7))/FACT(I7))*$E$39</f>
-        <v>5.1070499973442785E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+        <f>((EXP(-lambda)*POWER(lambda,H7))/FACT(H7))*suma_veces</f>
+        <v>1.2767624993360696E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
       <c r="B8" s="4">
         <v>12</v>
       </c>
@@ -2132,16 +2337,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="14">
-        <f>((EXP(-$E$39)*POWER($E$39,I8))/FACT(I8))*$E$39</f>
-        <v>5.1070499973442785E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+        <f>((EXP(-lambda)*POWER(lambda,H8))/FACT(H8))*suma_veces</f>
+        <v>7.9159274958836318E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="3">
@@ -2157,16 +2365,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="14">
-        <f>((EXP(-$E$39)*POWER($E$39,I9))/FACT(I9))*$E$39</f>
-        <v>5.1070499973442785E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+        <f>((EXP(-lambda)*POWER(lambda,H9))/FACT(H9))*suma_veces</f>
+        <v>0.32719166982985681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
       <c r="B10" s="3">
         <v>12</v>
       </c>
@@ -2180,16 +2391,19 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
+      <c r="H10" s="1">
+        <v>4</v>
+      </c>
       <c r="I10" s="1">
         <v>3</v>
       </c>
       <c r="J10" s="14">
-        <f>((EXP(-$E$39)*POWER($E$39,I10))/FACT(I10))*$E$39</f>
-        <v>1.6228706823560896E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+        <f>((EXP(-lambda)*POWER(lambda,H10))/FACT(H10))*suma_veces</f>
+        <v>1.0142941764725562</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="4">
@@ -2205,16 +2419,19 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="H11" s="1">
+        <v>5</v>
+      </c>
       <c r="I11" s="1">
         <v>4</v>
       </c>
       <c r="J11" s="14">
-        <f>((EXP(-$E$39)*POWER($E$39,I11))/FACT(I11))*$E$39</f>
-        <v>5.0308991153038787E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+        <f>((EXP(-lambda)*POWER(lambda,H11))/FACT(H11))*suma_veces</f>
+        <v>2.5154495576519391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
       <c r="B12" s="4">
         <v>10</v>
       </c>
@@ -2228,16 +2445,19 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
+      <c r="H12" s="1">
+        <v>6</v>
+      </c>
       <c r="I12" s="1">
         <v>3</v>
       </c>
       <c r="J12" s="14">
-        <f>((EXP(-$E$39)*POWER($E$39,I12))/FACT(I12))*$E$39</f>
-        <v>1.6228706823560896E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+        <f>((EXP(-lambda)*POWER(lambda,H12))/FACT(H12))*suma_veces</f>
+        <v>5.1985957524806752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="3">
@@ -2253,16 +2473,22 @@
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
+      <c r="H13" s="1">
+        <v>7</v>
+      </c>
       <c r="I13" s="1">
         <v>14</v>
       </c>
       <c r="J13" s="14">
-        <f>((EXP(-$E$39)*POWER($E$39,I13))/FACT(I13))*$E$39</f>
-        <v>1.1903244373889652</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+        <f>((EXP(-lambda)*POWER(lambda,H13))/FACT(H13))*suma_veces</f>
+        <v>9.2089410472514821</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
       <c r="B14" s="3">
         <v>14</v>
       </c>
@@ -2276,16 +2502,19 @@
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
+      <c r="H14" s="1">
+        <v>8</v>
+      </c>
       <c r="I14" s="1">
         <v>14</v>
       </c>
       <c r="J14" s="14">
-        <f>((EXP(-$E$39)*POWER($E$39,I14))/FACT(I14))*$E$39</f>
-        <v>1.1903244373889652</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+        <f>((EXP(-lambda)*POWER(lambda,H14))/FACT(H14))*suma_veces</f>
+        <v>14.2738586232398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="4">
@@ -2301,16 +2530,19 @@
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
+      <c r="H15" s="1">
+        <v>9</v>
+      </c>
       <c r="I15" s="1">
         <v>20</v>
       </c>
       <c r="J15" s="14">
-        <f>((EXP(-$E$39)*POWER($E$39,I15))/FACT(I15))*$E$39</f>
-        <v>0.15505265099205479</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
+        <f>((EXP(-lambda)*POWER(lambda,H15))/FACT(H15))*suma_veces</f>
+        <v>19.666205214241501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
       <c r="B16" s="4">
         <v>10</v>
       </c>
@@ -2324,16 +2556,19 @@
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
+      <c r="H16" s="1">
+        <v>10</v>
+      </c>
       <c r="I16" s="1">
         <v>28</v>
       </c>
       <c r="J16" s="14">
-        <f>((EXP(-$E$39)*POWER($E$39,I16))/FACT(I16))*$E$39</f>
-        <v>6.9157051958236896E-4</v>
+        <f>((EXP(-lambda)*POWER(lambda,H16))/FACT(H16))*suma_veces</f>
+        <v>24.386094465659465</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="3">
@@ -2349,16 +2584,19 @@
         <f t="shared" si="0"/>
         <v>308</v>
       </c>
+      <c r="H17" s="1">
+        <v>11</v>
+      </c>
       <c r="I17" s="1">
         <v>28</v>
       </c>
       <c r="J17" s="14">
-        <f>((EXP(-$E$39)*POWER($E$39,I17))/FACT(I17))*$E$39</f>
-        <v>6.9157051958236896E-4</v>
+        <f>((EXP(-lambda)*POWER(lambda,H17))/FACT(H17))*suma_veces</f>
+        <v>27.489779215834304</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="3">
         <v>10</v>
       </c>
@@ -2372,16 +2610,19 @@
         <f t="shared" si="0"/>
         <v>384</v>
       </c>
+      <c r="H18" s="1">
+        <v>12</v>
+      </c>
       <c r="I18" s="1">
         <v>32</v>
       </c>
       <c r="J18" s="14">
-        <f>((EXP(-$E$39)*POWER($E$39,I18))/FACT(I18))*$E$39</f>
-        <v>1.8944898711612278E-5</v>
+        <f>((EXP(-lambda)*POWER(lambda,H18))/FACT(H18))*suma_veces</f>
+        <v>28.406105189695456</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="4">
@@ -2397,16 +2638,19 @@
         <f t="shared" si="0"/>
         <v>234</v>
       </c>
+      <c r="H19" s="1">
+        <v>13</v>
+      </c>
       <c r="I19" s="1">
         <v>18</v>
       </c>
       <c r="J19" s="14">
-        <f>((EXP(-$E$39)*POWER($E$39,I19))/FACT(I19))*$E$39</f>
-        <v>0.38319463694706568</v>
+        <f>((EXP(-lambda)*POWER(lambda,H19))/FACT(H19))*suma_veces</f>
+        <v>27.095054180940281</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="4">
         <v>15</v>
       </c>
@@ -2420,16 +2664,19 @@
         <f t="shared" si="0"/>
         <v>266</v>
       </c>
+      <c r="H20" s="1">
+        <v>14</v>
+      </c>
       <c r="I20" s="1">
         <v>19</v>
       </c>
       <c r="J20" s="14">
-        <f>((EXP(-$E$39)*POWER($E$39,I20))/FACT(I20))*$E$39</f>
-        <v>0.25008492095492707</v>
+        <f>((EXP(-lambda)*POWER(lambda,H20))/FACT(H20))*suma_veces</f>
+        <v>23.998476560261395</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="3">
@@ -2445,16 +2692,19 @@
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
+      <c r="H21" s="1">
+        <v>15</v>
+      </c>
       <c r="I21" s="1">
         <v>12</v>
       </c>
       <c r="J21" s="14">
-        <f>((EXP(-$E$39)*POWER($E$39,I21))/FACT(I21))*$E$39</f>
-        <v>1.4089428174088945</v>
+        <f>((EXP(-lambda)*POWER(lambda,H21))/FACT(H21))*suma_veces</f>
+        <v>19.83874062314942</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="3">
         <v>11</v>
       </c>
@@ -2468,16 +2718,19 @@
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
+      <c r="H22" s="1">
+        <v>16</v>
+      </c>
       <c r="I22" s="1">
         <v>12</v>
       </c>
       <c r="J22" s="14">
-        <f>((EXP(-$E$39)*POWER($E$39,I22))/FACT(I22))*$E$39</f>
-        <v>1.4089428174088945</v>
+        <f>((EXP(-lambda)*POWER(lambda,H22))/FACT(H22))*suma_veces</f>
+        <v>15.3750239829408</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="4">
@@ -2493,16 +2746,19 @@
         <f t="shared" si="0"/>
         <v>221</v>
       </c>
+      <c r="H23" s="1">
+        <v>17</v>
+      </c>
       <c r="I23" s="1">
         <v>13</v>
       </c>
       <c r="J23" s="14">
-        <f>((EXP(-$E$39)*POWER($E$39,I23))/FACT(I23))*$E$39</f>
-        <v>1.3439146873746379</v>
+        <f>((EXP(-lambda)*POWER(lambda,H23))/FACT(H23))*suma_veces</f>
+        <v>11.214723375792111</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="4">
         <v>9</v>
       </c>
@@ -2516,16 +2772,19 @@
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
+      <c r="H24" s="1">
+        <v>18</v>
+      </c>
       <c r="I24" s="1">
         <v>8</v>
       </c>
       <c r="J24" s="14">
-        <f>((EXP(-$E$39)*POWER($E$39,I24))/FACT(I24))*$E$39</f>
-        <v>0.70798338771269409</v>
+        <f>((EXP(-lambda)*POWER(lambda,H24))/FACT(H24))*suma_veces</f>
+        <v>7.7256983255456788</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="3">
@@ -2541,16 +2800,19 @@
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
+      <c r="H25" s="1">
+        <v>19</v>
+      </c>
       <c r="I25" s="1">
         <v>10</v>
       </c>
       <c r="J25" s="14">
-        <f>((EXP(-$E$39)*POWER($E$39,I25))/FACT(I25))*$E$39</f>
-        <v>1.2095502854967095</v>
+        <f>((EXP(-lambda)*POWER(lambda,H25))/FACT(H25))*suma_veces</f>
+        <v>5.0420346966719167</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="3">
         <v>10</v>
       </c>
@@ -2564,16 +2826,19 @@
         <f>D26*E26</f>
         <v>60</v>
       </c>
+      <c r="H26" s="1">
+        <v>20</v>
+      </c>
       <c r="I26" s="1">
         <v>3</v>
       </c>
       <c r="J26" s="14">
-        <f>((EXP(-$E$39)*POWER($E$39,I26))/FACT(I26))*$E$39</f>
-        <v>1.6228706823560896E-2</v>
+        <f>((EXP(-lambda)*POWER(lambda,H26))/FACT(H26))*suma_veces</f>
+        <v>3.1260615119365887</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="4">
@@ -2589,16 +2854,19 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
+      <c r="H27" s="1">
+        <v>21</v>
+      </c>
       <c r="I27" s="1">
         <v>3</v>
       </c>
       <c r="J27" s="14">
-        <f>((EXP(-$E$39)*POWER($E$39,I27))/FACT(I27))*$E$39</f>
-        <v>1.6228706823560896E-2</v>
+        <f>((EXP(-lambda)*POWER(lambda,H27))/FACT(H27))*suma_veces</f>
+        <v>1.8458648927625572</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="4">
         <v>19</v>
       </c>
@@ -2612,16 +2880,19 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
+      <c r="H28" s="1">
+        <v>22</v>
+      </c>
       <c r="I28" s="1">
         <v>2</v>
       </c>
       <c r="J28" s="14">
-        <f>((EXP(-$E$39)*POWER($E$39,I28))/FACT(I28))*$E$39</f>
-        <v>3.9263000379582812E-3</v>
+        <f>((EXP(-lambda)*POWER(lambda,H28))/FACT(H28))*suma_veces</f>
+        <v>1.0403965759207141</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="3">
@@ -2637,16 +2908,19 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
+      <c r="H29" s="1">
+        <v>23</v>
+      </c>
       <c r="I29" s="1">
         <v>2</v>
       </c>
       <c r="J29" s="14">
-        <f>((EXP(-$E$39)*POWER($E$39,I29))/FACT(I29))*$E$39</f>
-        <v>3.9263000379582812E-3</v>
+        <f>((EXP(-lambda)*POWER(lambda,H29))/FACT(H29))*suma_veces</f>
+        <v>0.56090945832247208</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="3">
         <v>16</v>
       </c>
@@ -2660,16 +2934,19 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
+      <c r="H30" s="1">
+        <v>24</v>
+      </c>
       <c r="I30" s="1">
         <v>2</v>
       </c>
       <c r="J30" s="14">
-        <f>((EXP(-$E$39)*POWER($E$39,I30))/FACT(I30))*$E$39</f>
-        <v>3.9263000379582812E-3</v>
+        <f>((EXP(-lambda)*POWER(lambda,H30))/FACT(H30))*suma_veces</f>
+        <v>0.28980322013327725</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="4">
@@ -2685,16 +2962,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="H31" s="1">
+        <v>25</v>
+      </c>
       <c r="I31" s="1">
         <v>0</v>
       </c>
       <c r="J31" s="14">
-        <f>((EXP(-$E$39)*POWER($E$39,I31))/FACT(I31))*$E$39</f>
-        <v>5.1070499973442785E-5</v>
+        <f>((EXP(-lambda)*POWER(lambda,H31))/FACT(H31))*suma_veces</f>
+        <v>0.14374239718610557</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="4">
         <v>19</v>
       </c>
@@ -2708,16 +2988,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="H32" s="1">
+        <v>26</v>
+      </c>
       <c r="I32" s="1">
         <v>0</v>
       </c>
       <c r="J32" s="14">
-        <f>((EXP(-$E$39)*POWER($E$39,I32))/FACT(I32))*$E$39</f>
-        <v>5.1070499973442785E-5</v>
+        <f>((EXP(-lambda)*POWER(lambda,H32))/FACT(H32))*suma_veces</f>
+        <v>6.8554066350296469E-2</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="3">
@@ -2733,13 +3016,13 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="4">
@@ -2747,7 +3030,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="4">
         <v>14</v>
       </c>
@@ -2766,7 +3049,7 @@
       <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B37" s="3">
@@ -2787,7 +3070,7 @@
       <c r="K37" s="6"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="3">
         <v>15</v>
       </c>
@@ -2800,7 +3083,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B39" s="4">
@@ -2815,41 +3098,50 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B41" s="3">
         <v>10</v>
       </c>
+      <c r="K41" s="20" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
+      <c r="A42" s="18"/>
       <c r="B42" s="3">
         <v>9</v>
       </c>
+      <c r="K42" s="20" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B43" s="4">
         <v>16</v>
       </c>
+      <c r="K43" s="20" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="17" t="s">
         <v>23</v>
       </c>
       <c r="B45" s="3">
@@ -2857,13 +3149,13 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B47" s="4">
@@ -2871,461 +3163,937 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
+      <c r="A48" s="16"/>
       <c r="B48" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B49" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="18"/>
       <c r="B50" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B51" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
       <c r="B52" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B53" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="18"/>
       <c r="B54" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B55" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="18"/>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
       <c r="B56" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B57" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
+    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="18"/>
       <c r="B58" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="s">
+      <c r="D58" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B59" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="18"/>
+      <c r="D59" s="1">
+        <v>5</v>
+      </c>
+      <c r="E59" s="1">
+        <v>7</v>
+      </c>
+      <c r="F59" s="14">
+        <f>SUM(J6:J11)</f>
+        <v>3.9498919510834329</v>
+      </c>
+      <c r="H59" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
       <c r="B60" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
+      <c r="D60" s="1">
+        <v>6</v>
+      </c>
+      <c r="E60" s="1">
+        <v>3</v>
+      </c>
+      <c r="F60" s="14">
+        <v>5.1985957524806752</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B61" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
+      <c r="D61" s="1">
+        <v>7</v>
+      </c>
+      <c r="E61" s="1">
+        <v>14</v>
+      </c>
+      <c r="F61" s="14">
+        <v>9.2089410472514821</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="18"/>
       <c r="B62" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="17" t="s">
+      <c r="D62" s="1">
+        <v>8</v>
+      </c>
+      <c r="E62" s="1">
+        <v>14</v>
+      </c>
+      <c r="F62" s="14">
+        <v>14.2738586232398</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B63" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="18"/>
+      <c r="D63" s="1">
+        <v>9</v>
+      </c>
+      <c r="E63" s="1">
+        <v>20</v>
+      </c>
+      <c r="F63" s="14">
+        <v>19.666205214241501</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="16"/>
       <c r="B64" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="15" t="s">
+      <c r="D64" s="1">
+        <v>10</v>
+      </c>
+      <c r="E64" s="1">
+        <v>28</v>
+      </c>
+      <c r="F64" s="14">
+        <v>24.386094465659465</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
         <v>33</v>
       </c>
       <c r="B65" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="16"/>
+      <c r="D65" s="1">
+        <v>11</v>
+      </c>
+      <c r="E65" s="1">
+        <v>28</v>
+      </c>
+      <c r="F65" s="14">
+        <v>27.489779215834304</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="18"/>
       <c r="B66" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="17" t="s">
+      <c r="D66" s="1">
+        <v>12</v>
+      </c>
+      <c r="E66" s="1">
+        <v>32</v>
+      </c>
+      <c r="F66" s="14">
+        <v>28.406105189695456</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B67" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="18"/>
+      <c r="D67" s="1">
+        <v>13</v>
+      </c>
+      <c r="E67" s="1">
+        <v>18</v>
+      </c>
+      <c r="F67" s="14">
+        <v>27.095054180940281</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="16"/>
       <c r="B68" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="15" t="s">
+      <c r="D68" s="1">
+        <v>14</v>
+      </c>
+      <c r="E68" s="1">
+        <v>19</v>
+      </c>
+      <c r="F68" s="14">
+        <v>23.998476560261395</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="17" t="s">
         <v>23</v>
       </c>
       <c r="B69" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="16"/>
+      <c r="D69" s="1">
+        <v>15</v>
+      </c>
+      <c r="E69" s="1">
+        <v>12</v>
+      </c>
+      <c r="F69" s="14">
+        <v>19.83874062314942</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="18"/>
       <c r="B70" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="17" t="s">
+      <c r="D70" s="1">
+        <v>16</v>
+      </c>
+      <c r="E70" s="1">
+        <v>12</v>
+      </c>
+      <c r="F70">
+        <v>15.3750239829408</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B71" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="18"/>
+      <c r="D71" s="1">
+        <v>17</v>
+      </c>
+      <c r="E71" s="1">
+        <v>13</v>
+      </c>
+      <c r="F71">
+        <v>11.214723375792111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="16"/>
       <c r="B72" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="15" t="s">
+      <c r="D72" s="1">
+        <v>18</v>
+      </c>
+      <c r="E72" s="1">
+        <v>8</v>
+      </c>
+      <c r="F72">
+        <v>7.7256983255456788</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B73" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="16"/>
+      <c r="D73" s="1">
+        <v>19</v>
+      </c>
+      <c r="E73" s="1">
+        <v>10</v>
+      </c>
+      <c r="F73">
+        <v>5.0420346966719167</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="18"/>
       <c r="B74" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
+      <c r="D74" s="1">
+        <v>20</v>
+      </c>
+      <c r="E74" s="1">
+        <v>12</v>
+      </c>
+      <c r="F74" s="14">
+        <f>SUM(J26:J32)</f>
+        <v>7.0753321226120116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B75" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="18"/>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="16"/>
       <c r="B76" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="15" t="s">
+    <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B77" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="16"/>
+      <c r="D77" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="18"/>
       <c r="B78" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="17" t="s">
+      <c r="D78" s="1">
+        <v>5</v>
+      </c>
+      <c r="E78" s="1">
+        <v>7</v>
+      </c>
+      <c r="F78" s="14">
+        <v>3.9498919510834329</v>
+      </c>
+      <c r="G78">
+        <f>POWER(E78-F78,2)</f>
+        <v>9.3031591100656268</v>
+      </c>
+      <c r="H78">
+        <f>G78/F78</f>
+        <v>2.3552945815426223</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B79" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="18"/>
+      <c r="D79" s="1">
+        <v>6</v>
+      </c>
+      <c r="E79" s="1">
+        <v>3</v>
+      </c>
+      <c r="F79" s="14">
+        <v>5.1985957524806752</v>
+      </c>
+      <c r="G79">
+        <f>POWER(E79-F79,2)</f>
+        <v>4.8338232828260663</v>
+      </c>
+      <c r="H79">
+        <f t="shared" ref="H79:H93" si="1">G79/F79</f>
+        <v>0.92983249957826664</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="16"/>
       <c r="B80" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="15" t="s">
+      <c r="D80" s="1">
+        <v>7</v>
+      </c>
+      <c r="E80" s="1">
+        <v>14</v>
+      </c>
+      <c r="F80" s="14">
+        <v>9.2089410472514821</v>
+      </c>
+      <c r="G80">
+        <f>POWER(E80-F80,2)</f>
+        <v>22.954245888711725</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="1"/>
+        <v>2.4926042821788608</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B81" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="16"/>
+      <c r="D81" s="1">
+        <v>8</v>
+      </c>
+      <c r="E81" s="1">
+        <v>14</v>
+      </c>
+      <c r="F81" s="14">
+        <v>14.2738586232398</v>
+      </c>
+      <c r="G81">
+        <f>POWER(E81-F81,2)</f>
+        <v>7.4998545522798679E-2</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="1"/>
+        <v>5.2542586768157254E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="18"/>
       <c r="B82" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="17" t="s">
+      <c r="D82" s="1">
+        <v>9</v>
+      </c>
+      <c r="E82" s="1">
+        <v>20</v>
+      </c>
+      <c r="F82" s="14">
+        <v>19.666205214241501</v>
+      </c>
+      <c r="G82">
+        <f>POWER(E82-F82,2)</f>
+        <v>0.11141895899956245</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="1"/>
+        <v>5.6655037301694159E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B83" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="18"/>
+      <c r="D83" s="1">
+        <v>10</v>
+      </c>
+      <c r="E83" s="1">
+        <v>28</v>
+      </c>
+      <c r="F83" s="14">
+        <v>24.386094465659465</v>
+      </c>
+      <c r="G83">
+        <f>POWER(E83-F83,2)</f>
+        <v>13.060313211137149</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="1"/>
+        <v>0.53556395549638758</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="16"/>
       <c r="B84" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="15" t="s">
+      <c r="D84" s="1">
+        <v>11</v>
+      </c>
+      <c r="E84" s="1">
+        <v>28</v>
+      </c>
+      <c r="F84" s="14">
+        <v>27.489779215834304</v>
+      </c>
+      <c r="G84">
+        <f>POWER(E84-F84,2)</f>
+        <v>0.260325248594658</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="1"/>
+        <v>9.4698923025438066E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B85" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="16"/>
+      <c r="D85" s="1">
+        <v>12</v>
+      </c>
+      <c r="E85" s="1">
+        <v>32</v>
+      </c>
+      <c r="F85" s="14">
+        <v>28.406105189695456</v>
+      </c>
+      <c r="G85">
+        <f>POWER(E85-F85,2)</f>
+        <v>12.916079907533934</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="1"/>
+        <v>0.45469379984621566</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="18"/>
       <c r="B86" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="17" t="s">
+      <c r="D86" s="1">
+        <v>13</v>
+      </c>
+      <c r="E86" s="1">
+        <v>18</v>
+      </c>
+      <c r="F86" s="14">
+        <v>27.095054180940281</v>
+      </c>
+      <c r="G86">
+        <f>POWER(E86-F86,2)</f>
+        <v>82.720010554239281</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="1"/>
+        <v>3.0529560857061422</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B87" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="18"/>
+      <c r="D87" s="1">
+        <v>14</v>
+      </c>
+      <c r="E87" s="1">
+        <v>19</v>
+      </c>
+      <c r="F87" s="14">
+        <v>23.998476560261395</v>
+      </c>
+      <c r="G87">
+        <f>POWER(E87-F87,2)</f>
+        <v>24.984767923482586</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="1"/>
+        <v>1.0410980822363687</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="16"/>
       <c r="B88" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="15" t="s">
+      <c r="D88" s="1">
+        <v>15</v>
+      </c>
+      <c r="E88" s="1">
+        <v>12</v>
+      </c>
+      <c r="F88" s="14">
+        <v>19.83874062314942</v>
+      </c>
+      <c r="G88">
+        <f>POWER(E88-F88,2)</f>
+        <v>61.44585455701295</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="1"/>
+        <v>3.0972658861880094</v>
+      </c>
+      <c r="J88" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B89" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="16"/>
+      <c r="D89" s="1">
+        <v>16</v>
+      </c>
+      <c r="E89" s="1">
+        <v>12</v>
+      </c>
+      <c r="F89" s="14">
+        <v>15.3750239829408</v>
+      </c>
+      <c r="G89">
+        <f>POWER(E89-F89,2)</f>
+        <v>11.390786885425578</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="1"/>
+        <v>0.74086303202285142</v>
+      </c>
+      <c r="J89" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="18"/>
       <c r="B90" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="17" t="s">
+      <c r="D90" s="1">
+        <v>17</v>
+      </c>
+      <c r="E90" s="1">
+        <v>13</v>
+      </c>
+      <c r="F90" s="14">
+        <v>11.214723375792111</v>
+      </c>
+      <c r="G90">
+        <f>POWER(E90-F90,2)</f>
+        <v>3.1872126249431147</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="1"/>
+        <v>0.28419895151609098</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B91" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="18"/>
+      <c r="D91" s="1">
+        <v>18</v>
+      </c>
+      <c r="E91" s="1">
+        <v>8</v>
+      </c>
+      <c r="F91" s="14">
+        <v>7.7256983255456788</v>
+      </c>
+      <c r="G91">
+        <f>POWER(E91-F91,2)</f>
+        <v>7.5241408608444402E-2</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="1"/>
+        <v>9.739107772258242E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="16"/>
       <c r="B92" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="15" t="s">
+      <c r="D92" s="1">
+        <v>19</v>
+      </c>
+      <c r="E92" s="1">
+        <v>10</v>
+      </c>
+      <c r="F92" s="14">
+        <v>5.0420346966719167</v>
+      </c>
+      <c r="G92">
+        <f>POWER(E92-F92,2)</f>
+        <v>24.581419949005134</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="1"/>
+        <v>4.875297658151883</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B93" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="16"/>
+      <c r="D93" s="1">
+        <v>20</v>
+      </c>
+      <c r="E93" s="1">
+        <v>12</v>
+      </c>
+      <c r="F93" s="14">
+        <v>7.0753321226120116</v>
+      </c>
+      <c r="G93">
+        <f>POWER(E93-F93,2)</f>
+        <v>24.252353702577114</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="1"/>
+        <v>3.4277336077368243</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A94" s="18"/>
       <c r="B94" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="17" t="s">
+      <c r="G94" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="H94" s="24">
+        <f>SUM(H78:H93)</f>
+        <v>23.317531184682309</v>
+      </c>
+      <c r="I94" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="J94">
+        <v>29.141200000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B95" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="18"/>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="16"/>
       <c r="B96" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="15" t="s">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="17" t="s">
         <v>46</v>
       </c>
       <c r="B97" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="16"/>
+      <c r="G97" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="H97">
+        <v>29.141200000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="18"/>
       <c r="B98" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="17" t="s">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B99" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="18"/>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="16"/>
       <c r="B100" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="15" t="s">
+      <c r="G100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B101" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="16"/>
+      <c r="G101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="18"/>
       <c r="B102" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="17" t="s">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B103" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="18"/>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="16"/>
       <c r="B104" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="15" t="s">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="17" t="s">
         <v>50</v>
       </c>
       <c r="B105" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="16"/>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="18"/>
       <c r="B106" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="17" t="s">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B107" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="18"/>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="16"/>
       <c r="B108" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="15" t="s">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="17" t="s">
         <v>51</v>
       </c>
       <c r="B109" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="16"/>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="18"/>
       <c r="B110" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="17" t="s">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B111" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="18"/>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="16"/>
       <c r="B112" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="15" t="s">
+      <c r="A113" s="17" t="s">
         <v>53</v>
       </c>
       <c r="B113" s="3">
@@ -3333,13 +4101,13 @@
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="16"/>
+      <c r="A114" s="18"/>
       <c r="B114" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="17" t="s">
+      <c r="A115" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B115" s="4">
@@ -3347,13 +4115,13 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="18"/>
+      <c r="A116" s="16"/>
       <c r="B116" s="4">
         <v>16</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="15" t="s">
+      <c r="A117" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B117" s="3">
@@ -3361,13 +4129,13 @@
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="16"/>
+      <c r="A118" s="18"/>
       <c r="B118" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="17" t="s">
+      <c r="A119" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B119" s="4">
@@ -3375,13 +4143,13 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="18"/>
+      <c r="A120" s="16"/>
       <c r="B120" s="4">
         <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="15" t="s">
+      <c r="A121" s="17" t="s">
         <v>56</v>
       </c>
       <c r="B121" s="3">
@@ -3389,13 +4157,13 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="16"/>
+      <c r="A122" s="18"/>
       <c r="B122" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="17" t="s">
+      <c r="A123" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B123" s="4">
@@ -3403,13 +4171,13 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="18"/>
+      <c r="A124" s="16"/>
       <c r="B124" s="4">
         <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="15" t="s">
+      <c r="A125" s="17" t="s">
         <v>58</v>
       </c>
       <c r="B125" s="3">
@@ -3417,13 +4185,13 @@
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="16"/>
+      <c r="A126" s="18"/>
       <c r="B126" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="17" t="s">
+      <c r="A127" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B127" s="4">
@@ -3431,13 +4199,13 @@
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="18"/>
+      <c r="A128" s="16"/>
       <c r="B128" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="15" t="s">
+      <c r="A129" s="17" t="s">
         <v>60</v>
       </c>
       <c r="B129" s="3">
@@ -3445,13 +4213,13 @@
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="16"/>
+      <c r="A130" s="18"/>
       <c r="B130" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="17" t="s">
+      <c r="A131" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B131" s="4">
@@ -3459,13 +4227,13 @@
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="18"/>
+      <c r="A132" s="16"/>
       <c r="B132" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="15" t="s">
+      <c r="A133" s="17" t="s">
         <v>65</v>
       </c>
       <c r="B133" s="3">
@@ -3473,13 +4241,13 @@
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="16"/>
+      <c r="A134" s="18"/>
       <c r="B134" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="17" t="s">
+      <c r="A135" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B135" s="4">
@@ -3487,13 +4255,13 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="18"/>
+      <c r="A136" s="16"/>
       <c r="B136" s="4">
         <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="15" t="s">
+      <c r="A137" s="17" t="s">
         <v>63</v>
       </c>
       <c r="B137" s="3">
@@ -3501,13 +4269,13 @@
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="16"/>
+      <c r="A138" s="18"/>
       <c r="B138" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="17" t="s">
+      <c r="A139" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B139" s="4">
@@ -3515,13 +4283,13 @@
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="18"/>
+      <c r="A140" s="16"/>
       <c r="B140" s="4">
         <v>17</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="15" t="s">
+      <c r="A141" s="17" t="s">
         <v>66</v>
       </c>
       <c r="B141" s="3">
@@ -3529,13 +4297,13 @@
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="16"/>
+      <c r="A142" s="18"/>
       <c r="B142" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="17" t="s">
+      <c r="A143" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B143" s="4">
@@ -3543,13 +4311,13 @@
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="18"/>
+      <c r="A144" s="16"/>
       <c r="B144" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="15" t="s">
+      <c r="A145" s="17" t="s">
         <v>68</v>
       </c>
       <c r="B145" s="3">
@@ -3557,13 +4325,13 @@
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="16"/>
+      <c r="A146" s="18"/>
       <c r="B146" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="17" t="s">
+      <c r="A147" s="15" t="s">
         <v>69</v>
       </c>
       <c r="B147" s="4">
@@ -3571,13 +4339,13 @@
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="18"/>
+      <c r="A148" s="16"/>
       <c r="B148" s="4">
         <v>23</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="15" t="s">
+      <c r="A149" s="17" t="s">
         <v>70</v>
       </c>
       <c r="B149" s="3">
@@ -3585,13 +4353,13 @@
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="16"/>
+      <c r="A150" s="18"/>
       <c r="B150" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="17" t="s">
+      <c r="A151" s="15" t="s">
         <v>71</v>
       </c>
       <c r="B151" s="4">
@@ -3599,13 +4367,13 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="18"/>
+      <c r="A152" s="16"/>
       <c r="B152" s="4">
         <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="15" t="s">
+      <c r="A153" s="17" t="s">
         <v>72</v>
       </c>
       <c r="B153" s="3">
@@ -3613,13 +4381,13 @@
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="16"/>
+      <c r="A154" s="18"/>
       <c r="B154" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="17" t="s">
+      <c r="A155" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B155" s="4">
@@ -3627,13 +4395,13 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="18"/>
+      <c r="A156" s="16"/>
       <c r="B156" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="15" t="s">
+      <c r="A157" s="17" t="s">
         <v>74</v>
       </c>
       <c r="B157" s="3">
@@ -3641,13 +4409,13 @@
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="16"/>
+      <c r="A158" s="18"/>
       <c r="B158" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="17" t="s">
+      <c r="A159" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B159" s="4">
@@ -3655,13 +4423,13 @@
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="18"/>
+      <c r="A160" s="16"/>
       <c r="B160" s="4">
         <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="15" t="s">
+      <c r="A161" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B161" s="3">
@@ -3669,13 +4437,13 @@
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="16"/>
+      <c r="A162" s="18"/>
       <c r="B162" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="17" t="s">
+      <c r="A163" s="15" t="s">
         <v>77</v>
       </c>
       <c r="B163" s="4">
@@ -3683,13 +4451,13 @@
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="18"/>
+      <c r="A164" s="16"/>
       <c r="B164" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="15" t="s">
+      <c r="A165" s="17" t="s">
         <v>78</v>
       </c>
       <c r="B165" s="3">
@@ -3697,13 +4465,13 @@
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="16"/>
+      <c r="A166" s="18"/>
       <c r="B166" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="17" t="s">
+      <c r="A167" s="15" t="s">
         <v>79</v>
       </c>
       <c r="B167" s="4">
@@ -3711,13 +4479,13 @@
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="18"/>
+      <c r="A168" s="16"/>
       <c r="B168" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="15" t="s">
+      <c r="A169" s="17" t="s">
         <v>80</v>
       </c>
       <c r="B169" s="3">
@@ -3725,13 +4493,13 @@
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="16"/>
+      <c r="A170" s="18"/>
       <c r="B170" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="17" t="s">
+      <c r="A171" s="15" t="s">
         <v>81</v>
       </c>
       <c r="B171" s="4">
@@ -3739,13 +4507,13 @@
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="18"/>
+      <c r="A172" s="16"/>
       <c r="B172" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="15" t="s">
+      <c r="A173" s="17" t="s">
         <v>82</v>
       </c>
       <c r="B173" s="3">
@@ -3753,13 +4521,13 @@
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="16"/>
+      <c r="A174" s="18"/>
       <c r="B174" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="17" t="s">
+      <c r="A175" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B175" s="4">
@@ -3767,13 +4535,13 @@
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="18"/>
+      <c r="A176" s="16"/>
       <c r="B176" s="4">
         <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="15" t="s">
+      <c r="A177" s="17" t="s">
         <v>87</v>
       </c>
       <c r="B177" s="3">
@@ -3781,13 +4549,13 @@
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="16"/>
+      <c r="A178" s="18"/>
       <c r="B178" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="17" t="s">
+      <c r="A179" s="15" t="s">
         <v>83</v>
       </c>
       <c r="B179" s="4">
@@ -3795,13 +4563,13 @@
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="18"/>
+      <c r="A180" s="16"/>
       <c r="B180" s="4">
         <v>21</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="15" t="s">
+      <c r="A181" s="17" t="s">
         <v>84</v>
       </c>
       <c r="B181" s="3">
@@ -3809,13 +4577,13 @@
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="16"/>
+      <c r="A182" s="18"/>
       <c r="B182" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="17" t="s">
+      <c r="A183" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B183" s="4">
@@ -3823,13 +4591,13 @@
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="18"/>
+      <c r="A184" s="16"/>
       <c r="B184" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="15" t="s">
+      <c r="A185" s="17" t="s">
         <v>85</v>
       </c>
       <c r="B185" s="3">
@@ -3837,13 +4605,13 @@
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="16"/>
+      <c r="A186" s="18"/>
       <c r="B186" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="17" t="s">
+      <c r="A187" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B187" s="4">
@@ -3851,13 +4619,13 @@
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="18"/>
+      <c r="A188" s="16"/>
       <c r="B188" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="15" t="s">
+      <c r="A189" s="17" t="s">
         <v>75</v>
       </c>
       <c r="B189" s="3">
@@ -3865,13 +4633,13 @@
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="16"/>
+      <c r="A190" s="18"/>
       <c r="B190" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="17" t="s">
+      <c r="A191" s="15" t="s">
         <v>88</v>
       </c>
       <c r="B191" s="4">
@@ -3879,13 +4647,13 @@
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="18"/>
+      <c r="A192" s="16"/>
       <c r="B192" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="15" t="s">
+      <c r="A193" s="17" t="s">
         <v>89</v>
       </c>
       <c r="B193" s="3">
@@ -3893,13 +4661,13 @@
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="16"/>
+      <c r="A194" s="18"/>
       <c r="B194" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="17" t="s">
+      <c r="A195" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B195" s="4">
@@ -3907,13 +4675,13 @@
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="18"/>
+      <c r="A196" s="16"/>
       <c r="B196" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="15" t="s">
+      <c r="A197" s="17" t="s">
         <v>86</v>
       </c>
       <c r="B197" s="3">
@@ -3921,13 +4689,13 @@
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="16"/>
+      <c r="A198" s="18"/>
       <c r="B198" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="17" t="s">
+      <c r="A199" s="15" t="s">
         <v>91</v>
       </c>
       <c r="B199" s="4">
@@ -3935,13 +4703,13 @@
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="18"/>
+      <c r="A200" s="16"/>
       <c r="B200" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="15" t="s">
+      <c r="A201" s="17" t="s">
         <v>92</v>
       </c>
       <c r="B201" s="3">
@@ -3949,13 +4717,13 @@
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="16"/>
+      <c r="A202" s="18"/>
       <c r="B202" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="17" t="s">
+      <c r="A203" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B203" s="4">
@@ -3963,13 +4731,13 @@
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="18"/>
+      <c r="A204" s="16"/>
       <c r="B204" s="4">
         <v>12</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="15" t="s">
+      <c r="A205" s="17" t="s">
         <v>93</v>
       </c>
       <c r="B205" s="3">
@@ -3977,13 +4745,13 @@
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="16"/>
+      <c r="A206" s="18"/>
       <c r="B206" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="17" t="s">
+      <c r="A207" s="15" t="s">
         <v>94</v>
       </c>
       <c r="B207" s="4">
@@ -3991,13 +4759,13 @@
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="18"/>
+      <c r="A208" s="16"/>
       <c r="B208" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="15" t="s">
+      <c r="A209" s="17" t="s">
         <v>95</v>
       </c>
       <c r="B209" s="3">
@@ -4005,13 +4773,13 @@
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="16"/>
+      <c r="A210" s="18"/>
       <c r="B210" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="17" t="s">
+      <c r="A211" s="15" t="s">
         <v>96</v>
       </c>
       <c r="B211" s="4">
@@ -4019,13 +4787,13 @@
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="18"/>
+      <c r="A212" s="16"/>
       <c r="B212" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="15" t="s">
+      <c r="A213" s="17" t="s">
         <v>97</v>
       </c>
       <c r="B213" s="3">
@@ -4033,13 +4801,13 @@
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="16"/>
+      <c r="A214" s="18"/>
       <c r="B214" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="17" t="s">
+      <c r="A215" s="15" t="s">
         <v>98</v>
       </c>
       <c r="B215" s="4">
@@ -4047,13 +4815,13 @@
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="18"/>
+      <c r="A216" s="16"/>
       <c r="B216" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="15" t="s">
+      <c r="A217" s="17" t="s">
         <v>99</v>
       </c>
       <c r="B217" s="3">
@@ -4061,13 +4829,13 @@
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="16"/>
+      <c r="A218" s="18"/>
       <c r="B218" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="17" t="s">
+      <c r="A219" s="15" t="s">
         <v>100</v>
       </c>
       <c r="B219" s="4">
@@ -4075,13 +4843,13 @@
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="18"/>
+      <c r="A220" s="16"/>
       <c r="B220" s="4">
         <v>16</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="15" t="s">
+      <c r="A221" s="17" t="s">
         <v>101</v>
       </c>
       <c r="B221" s="3">
@@ -4089,13 +4857,13 @@
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="16"/>
+      <c r="A222" s="18"/>
       <c r="B222" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="17" t="s">
+      <c r="A223" s="15" t="s">
         <v>102</v>
       </c>
       <c r="B223" s="4">
@@ -4103,13 +4871,13 @@
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="18"/>
+      <c r="A224" s="16"/>
       <c r="B224" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="15" t="s">
+      <c r="A225" s="17" t="s">
         <v>103</v>
       </c>
       <c r="B225" s="3">
@@ -4117,13 +4885,13 @@
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="16"/>
+      <c r="A226" s="18"/>
       <c r="B226" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="17" t="s">
+      <c r="A227" s="15" t="s">
         <v>104</v>
       </c>
       <c r="B227" s="4">
@@ -4131,13 +4899,13 @@
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="18"/>
+      <c r="A228" s="16"/>
       <c r="B228" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="15" t="s">
+      <c r="A229" s="17" t="s">
         <v>105</v>
       </c>
       <c r="B229" s="3">
@@ -4145,13 +4913,13 @@
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="16"/>
+      <c r="A230" s="18"/>
       <c r="B230" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="17" t="s">
+      <c r="A231" s="15" t="s">
         <v>106</v>
       </c>
       <c r="B231" s="4">
@@ -4159,13 +4927,13 @@
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="18"/>
+      <c r="A232" s="16"/>
       <c r="B232" s="4">
         <v>13</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="15" t="s">
+      <c r="A233" s="17" t="s">
         <v>91</v>
       </c>
       <c r="B233" s="3">
@@ -4173,13 +4941,13 @@
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="16"/>
+      <c r="A234" s="18"/>
       <c r="B234" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="17" t="s">
+      <c r="A235" s="15" t="s">
         <v>107</v>
       </c>
       <c r="B235" s="4">
@@ -4187,13 +4955,13 @@
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="18"/>
+      <c r="A236" s="16"/>
       <c r="B236" s="4">
         <v>13</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="15" t="s">
+      <c r="A237" s="17" t="s">
         <v>108</v>
       </c>
       <c r="B237" s="3">
@@ -4201,13 +4969,13 @@
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="16"/>
+      <c r="A238" s="18"/>
       <c r="B238" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="17" t="s">
+      <c r="A239" s="15" t="s">
         <v>109</v>
       </c>
       <c r="B239" s="4">
@@ -4215,13 +4983,13 @@
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="18"/>
+      <c r="A240" s="16"/>
       <c r="B240" s="4">
         <v>16</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="15" t="s">
+      <c r="A241" s="17" t="s">
         <v>110</v>
       </c>
       <c r="B241" s="3">
@@ -4229,13 +4997,13 @@
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="16"/>
+      <c r="A242" s="18"/>
       <c r="B242" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="17" t="s">
+      <c r="A243" s="15" t="s">
         <v>111</v>
       </c>
       <c r="B243" s="4">
@@ -4243,13 +5011,13 @@
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="18"/>
+      <c r="A244" s="16"/>
       <c r="B244" s="4">
         <v>12</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="15" t="s">
+      <c r="A245" s="17" t="s">
         <v>101</v>
       </c>
       <c r="B245" s="3">
@@ -4257,13 +5025,13 @@
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="16"/>
+      <c r="A246" s="18"/>
       <c r="B246" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="17" t="s">
+      <c r="A247" s="15" t="s">
         <v>112</v>
       </c>
       <c r="B247" s="4">
@@ -4271,13 +5039,13 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="18"/>
+      <c r="A248" s="16"/>
       <c r="B248" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="15" t="s">
+      <c r="A249" s="17" t="s">
         <v>113</v>
       </c>
       <c r="B249" s="3">
@@ -4285,13 +5053,13 @@
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="16"/>
+      <c r="A250" s="18"/>
       <c r="B250" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="17" t="s">
+      <c r="A251" s="15" t="s">
         <v>114</v>
       </c>
       <c r="B251" s="4">
@@ -4299,31 +5067,97 @@
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="18"/>
+      <c r="A252" s="16"/>
       <c r="B252" s="4">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="125">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
+  <mergeCells count="126">
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="A241:A242"/>
+    <mergeCell ref="A239:A240"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="A233:A234"/>
+    <mergeCell ref="A231:A232"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="A227:A228"/>
+    <mergeCell ref="A225:A226"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="A221:A222"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A84"/>
     <mergeCell ref="A251:A252"/>
     <mergeCell ref="A249:A250"/>
     <mergeCell ref="A247:A248"/>
@@ -4348,91 +5182,27 @@
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="A241:A242"/>
-    <mergeCell ref="A239:A240"/>
-    <mergeCell ref="A237:A238"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="A233:A234"/>
-    <mergeCell ref="A231:A232"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="A227:A228"/>
-    <mergeCell ref="A225:A226"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="A221:A222"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="A215:A216"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="A203:A204"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="A195:A196"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>